--- a/src/Results/Questionário.xlsx
+++ b/src/Results/Questionário.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asavbrm-my.sharepoint.com/personal/nathansc_edu_unisinos_br/Documents/# UNISINOS/TCC2/Code/src/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="11_AD4D361C20488DEA4E38A021DC5B657C5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1899449C-1A6A-443B-A51F-3225B44E7D95}"/>
+  <xr:revisionPtr revIDLastSave="383" documentId="11_AD4D361C20488DEA4E38A021DC5B657C5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C8CA63-537B-4E7E-84B1-77C40C150F3E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,28 @@
     <sheet name="D" sheetId="6" r:id="rId5"/>
     <sheet name="E" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="52">
   <si>
     <t>Vídeo 1 - Propaganda de natal Zaffari 2011</t>
   </si>
@@ -101,9 +112,6 @@
     <t>Piada do banheiro</t>
   </si>
   <si>
-    <t>Pois a maioria do vídeo foi sem reação</t>
-  </si>
-  <si>
     <t>FELIZ</t>
   </si>
   <si>
@@ -132,13 +140,70 @@
   </si>
   <si>
     <t>Sim, pois também já conhecia o vídeo e sabia um pouco do que esperar.</t>
+  </si>
+  <si>
+    <t>Espaço para comentários</t>
+  </si>
+  <si>
+    <t>Concorda com Análise</t>
+  </si>
+  <si>
+    <t>Se sentiu "tocado"</t>
+  </si>
+  <si>
+    <t>Gostou do vídeo</t>
+  </si>
+  <si>
+    <t>Proporção</t>
+  </si>
+  <si>
+    <t>Sentimento em relação ao vídeo 1</t>
+  </si>
+  <si>
+    <t>Sentimento em relação ao vídeo 2</t>
+  </si>
+  <si>
+    <t>Sentimento em relação ao vídeo 3</t>
+  </si>
+  <si>
+    <t>Supresa</t>
+  </si>
+  <si>
+    <t>triste</t>
+  </si>
+  <si>
+    <t>raiva</t>
+  </si>
+  <si>
+    <t>neutro</t>
+  </si>
+  <si>
+    <t>feliz</t>
+  </si>
+  <si>
+    <t>medo</t>
+  </si>
+  <si>
+    <t>surpresa</t>
+  </si>
+  <si>
+    <t>Não gostou de alguma piada</t>
+  </si>
+  <si>
+    <t>Esperava pelo ocorrido</t>
+  </si>
+  <si>
+    <t>Pois a maioria do vídeo foi sem reação, não expressando surpresa ao final</t>
+  </si>
+  <si>
+    <t>Não representou facialmente a expressão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +229,20 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -213,11 +292,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -238,6 +318,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -250,13 +333,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,10 +617,895 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:U41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="2.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="2.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="33" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="2.21875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="2.21875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="O3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="16">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f>CHAR(34)&amp;S4&amp;CHAR(34)&amp;","</f>
+        <v>"triste",</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" ref="U5:U9" si="0">CHAR(34)&amp;S5&amp;CHAR(34)&amp;","</f>
+        <v>"raiva",</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="16">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"neutro",</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"feliz",</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="O8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"medo",</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="O9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f>CHAR(34)&amp;S9&amp;CHAR(34)</f>
+        <v>"surpresa"</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="O10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f>_xlfn.CONCAT(U4:U9)</f>
+        <v>"triste","raiva","neutro","feliz","medo","surpresa"</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="O12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="O16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="O21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="O22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="16">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="O23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="16">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="O25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="O26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="O30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="16">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="O31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="16">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="16">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="O36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" s="16">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="O37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="16">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="O38" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="16">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="O40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="16">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S4:T9">
+    <sortCondition ref="T4:T9"/>
+  </sortState>
+  <mergeCells count="14">
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="B21:L22"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="B36:L37"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="B25:L26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C34:I34"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=GYglXWVsRG8" xr:uid="{2A9F3B79-7F41-43C9-A159-BC162B097016}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE75186-4C5B-4B28-A567-526048AADD2E}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -573,18 +1541,18 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
@@ -613,7 +1581,9 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
@@ -622,21 +1592,23 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -646,47 +1618,51 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -699,18 +1675,20 @@
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -738,21 +1716,23 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
@@ -787,21 +1767,23 @@
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
@@ -811,30 +1793,32 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="B21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
@@ -854,7 +1838,9 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
@@ -864,47 +1850,51 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="B25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>8</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,18 +1922,18 @@
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
@@ -968,7 +1958,9 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
@@ -981,21 +1973,23 @@
       <c r="B34" s="1">
         <v>6</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,30 +1999,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="B36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
@@ -1052,7 +2048,9 @@
       <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1061,634 +2059,35 @@
       <c r="B40" s="1">
         <v>8</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:L37"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="B25:L26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="B21:L22"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="B8:L9"/>
     <mergeCell ref="C10:I10"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=GYglXWVsRG8" xr:uid="{2A9F3B79-7F41-43C9-A159-BC162B097016}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE75186-4C5B-4B28-A567-526048AADD2E}">
-  <dimension ref="B1:L41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="2.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>8</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>5</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>6</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>8</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="B36:L37"/>
     <mergeCell ref="C40:I40"/>
@@ -1698,11 +2097,6 @@
     <mergeCell ref="B25:L26"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=GYglXWVsRG8" xr:uid="{82E27047-4D1E-43B3-9534-3CF4E95B3E32}"/>
@@ -1716,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483EAE93-9BDF-4610-937B-2D31E9F39DB6}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -1753,18 +2147,18 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1804,15 +2198,15 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1830,44 +2224,44 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -1885,15 +2279,15 @@
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -1926,18 +2320,18 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
@@ -1977,15 +2371,15 @@
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2003,30 +2397,30 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
@@ -2058,44 +2452,44 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>8</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
@@ -2128,18 +2522,18 @@
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
@@ -2179,15 +2573,15 @@
       <c r="B34" s="1">
         <v>6</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
@@ -2205,32 +2599,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="B36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
@@ -2265,15 +2659,15 @@
       <c r="B40" s="1">
         <v>8</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
@@ -2289,6 +2683,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="B36:L37"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="C19:I19"/>
@@ -2297,12 +2697,6 @@
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C31:L31"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=GYglXWVsRG8" xr:uid="{C9ADD717-9632-404B-9243-A240F06B386E}"/>
@@ -2316,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9049670-93EB-45C4-821D-9586F7470B73}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2353,18 +2747,18 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -2404,15 +2798,15 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2430,46 +2824,46 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -2487,15 +2881,15 @@
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -2528,18 +2922,18 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
@@ -2579,15 +2973,15 @@
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2605,32 +2999,32 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="B21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
@@ -2662,44 +3056,44 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>8</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
@@ -2732,18 +3126,18 @@
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
@@ -2783,15 +3177,15 @@
       <c r="B34" s="1">
         <v>6</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
@@ -2809,32 +3203,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="B36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
@@ -2869,15 +3263,15 @@
       <c r="B40" s="1">
         <v>8</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
@@ -2893,6 +3287,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="B36:L37"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="C19:I19"/>
@@ -2901,12 +3301,6 @@
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C31:L31"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=GYglXWVsRG8" xr:uid="{76142742-3364-4CC3-B843-2AF0E56526B5}"/>
@@ -2920,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA0634-398D-4195-B227-60CD4624F9FE}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2957,18 +3351,18 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -3008,15 +3402,15 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3034,46 +3428,46 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -3091,15 +3485,15 @@
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -3132,18 +3526,18 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
@@ -3183,15 +3577,15 @@
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3209,32 +3603,32 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="B21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
@@ -3266,44 +3660,44 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>8</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
@@ -3336,18 +3730,18 @@
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
@@ -3387,15 +3781,15 @@
       <c r="B34" s="1">
         <v>6</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
@@ -3413,32 +3807,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="B36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
@@ -3473,15 +3867,15 @@
       <c r="B40" s="1">
         <v>8</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
@@ -3497,6 +3891,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="B36:L37"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="C19:I19"/>
@@ -3505,12 +3905,6 @@
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C31:L31"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=GYglXWVsRG8" xr:uid="{7DED2487-5859-472A-A969-E11E17A136C7}"/>
@@ -3524,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDD35B9-90B4-4B9D-A1DF-7F44F6BBD9B0}">
   <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -3561,18 +3955,18 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -3612,15 +4006,15 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3638,46 +4032,46 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
@@ -3695,15 +4089,15 @@
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -3736,18 +4130,18 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
@@ -3787,15 +4181,15 @@
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3813,30 +4207,30 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
@@ -3868,44 +4262,44 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>8</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
@@ -3938,18 +4332,18 @@
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
@@ -3989,15 +4383,15 @@
       <c r="B34" s="1">
         <v>6</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
@@ -4015,32 +4409,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="B36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
@@ -4075,15 +4469,15 @@
       <c r="B40" s="1">
         <v>8</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
@@ -4099,6 +4493,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="B36:L37"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="C19:I19"/>
@@ -4107,12 +4507,6 @@
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C31:L31"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=GYglXWVsRG8" xr:uid="{521F0EE4-BD97-4F51-9BF6-A19153F319E9}"/>
